--- a/Excel_Data/Postcode_Glasgow_Longitude_Latitude_Data.xlsx
+++ b/Excel_Data/Postcode_Glasgow_Longitude_Latitude_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rabiy\Desktop\projects\Coursera_Capstone\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2BEE41-0BB4-4ABD-A403-97E09D94C5A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D15B3D5-FF17-4AE0-821E-8E930DE6A01F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6DB8DB6-9A61-4F89-A853-1BCC8ECBB8D4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Postcode district</t>
   </si>
@@ -117,12 +117,6 @@
     <t>G46</t>
   </si>
   <si>
-    <t>G51 2</t>
-  </si>
-  <si>
-    <t>G51 1</t>
-  </si>
-  <si>
     <t>G52</t>
   </si>
   <si>
@@ -193,6 +187,9 @@
   </si>
   <si>
     <t>G81</t>
+  </si>
+  <si>
+    <t>G51</t>
   </si>
 </sst>
 </file>
@@ -580,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BDD314-039F-4AF5-A5FD-857E551B9E22}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,10 +666,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>55.8854112</v>
+        <v>55.87988575</v>
       </c>
       <c r="C8" s="5">
-        <v>-4.3004182000000002</v>
+        <v>-4.2923222812845001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -875,18 +872,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5">
-        <v>55.86309</v>
+        <v>55.860982499999999</v>
       </c>
       <c r="C27" s="5">
-        <v>-4.3121434000000001</v>
+        <v>-4.2488786999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5">
         <v>55.851134199999997</v>
@@ -897,7 +894,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>55.848291199999998</v>
@@ -908,7 +905,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5">
         <v>55.808943900000003</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>55.815327099999998</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5">
         <v>55.920461000000003</v>
@@ -941,7 +938,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>55.947113100000003</v>
@@ -952,7 +949,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5">
         <v>56.0716088</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5">
         <v>55.904408799999999</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5">
         <v>55.889371799999999</v>
@@ -985,7 +982,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5">
         <v>55.988661899999997</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5">
         <v>55.9441092</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5">
         <v>55.874026100000002</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="5">
         <v>55.850211399999999</v>
@@ -1029,7 +1026,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="5">
         <v>55.862057700000001</v>
@@ -1040,7 +1037,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="5">
         <v>55.793522400000001</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="5">
         <v>55.828388799999999</v>
@@ -1062,7 +1059,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="5">
         <v>55.760176000000001</v>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="5">
         <v>55.786184599999999</v>
@@ -1095,7 +1092,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="5">
         <v>55.7726726</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" s="5">
         <v>55.801102700000001</v>
@@ -1117,7 +1114,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B49" s="5">
         <v>55.924538900000002</v>
@@ -1128,7 +1125,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B50" s="5">
         <v>55.964424299999997</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5">
         <v>55.9878736</v>
@@ -1149,9 +1146,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="3"/>
       <c r="B52" s="5">
         <v>55.855911300000002</v>
       </c>
@@ -1165,7 +1160,6 @@
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
